--- a/Data/Export/Common/城市等级配置.xlsx
+++ b/Data/Export/Common/城市等级配置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_tk\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974329F8-BE3F-4D23-BB6F-22D53D421BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C148089-1393-4683-8B6E-9B24E15CEE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28815" yWindow="1785" windowWidth="25545" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CityLevelTypes" sheetId="36" r:id="rId1"/>
@@ -720,7 +720,7 @@
   <dimension ref="A1:Y69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -991,7 +991,7 @@
         <v>48</v>
       </c>
       <c r="L5" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M5" s="6">
         <v>4</v>
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="O5" s="4">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="P5" s="4">
         <v>15000</v>
@@ -1052,7 +1052,7 @@
         <v>46</v>
       </c>
       <c r="L6" s="6">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M6" s="6">
         <v>5</v>
@@ -1061,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="4">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="P6" s="4">
         <v>20000</v>
@@ -1112,7 +1112,7 @@
         <v>47</v>
       </c>
       <c r="L7" s="6">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M7" s="6">
         <v>6</v>
@@ -1121,7 +1121,7 @@
         <v>3</v>
       </c>
       <c r="O7" s="4">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="P7" s="4">
         <v>30000</v>
@@ -1172,7 +1172,7 @@
         <v>39</v>
       </c>
       <c r="L8" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M8" s="6">
         <v>8</v>
@@ -1181,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="4">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="P8" s="4">
         <v>50000</v>

--- a/Data/Export/Common/城市等级配置.xlsx
+++ b/Data/Export/Common/城市等级配置.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C148089-1393-4683-8B6E-9B24E15CEE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08661F59-ADDE-4442-8C64-136E38F8FFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29280" yWindow="2550" windowWidth="25380" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CityLevelTypes" sheetId="36" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>storeMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,34 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>villageSlot</t>
-  </si>
-  <si>
-    <t>baseGainGold</t>
-  </si>
-  <si>
-    <t>baseGainFood</t>
-  </si>
-  <si>
-    <t>maxDurability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxTroops</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxAgriculture</t>
-  </si>
-  <si>
-    <t>可容纳兵力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>升级所需金钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,34 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>村庄数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础粮食收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础金钱收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐久</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大商业值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大农业值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxCommerce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,55 +128,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxFood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金库大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粮仓大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级所需民心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>needPopularSupport</t>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城内建筑槽位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insideSlot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outsideSlot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城外建筑槽位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城内建筑槽位增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城外建筑槽位增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村庄数量增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础金钱收入增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础粮食收入增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐久增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大商业值增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大农业值增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粮仓大小增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金库大小增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库大小增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可容纳兵力增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durabilityLimitAdd</t>
+  </si>
+  <si>
+    <t>agricultureLimitAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commerceLimitAdd</t>
+  </si>
+  <si>
+    <t>baseGainFoodAdd</t>
+  </si>
+  <si>
+    <t>baseGainGoldAdd</t>
+  </si>
+  <si>
+    <t>villageSlotAdd</t>
+  </si>
+  <si>
+    <t>outsideSlotAdd</t>
+  </si>
+  <si>
+    <t>insideSlotAdd</t>
+  </si>
+  <si>
+    <t>foodLimitAdd</t>
+  </si>
+  <si>
+    <t>goldLimitAdd</t>
+  </si>
+  <si>
+    <t>storeLimitAdd</t>
+  </si>
+  <si>
+    <t>troopsLimitAdd</t>
   </si>
 </sst>
 </file>
@@ -717,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -728,22 +714,21 @@
     <col min="1" max="1" width="6.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" style="2" customWidth="1"/>
-    <col min="11" max="11" width="23.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" style="2" customWidth="1"/>
-    <col min="18" max="18" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -751,91 +736,87 @@
       <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="H1" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>52</v>
+        <v>28</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="7"/>
-    </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="S1" s="9"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="7"/>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2"/>
+      <c r="G2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
-      <c r="S2"/>
+      <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-    </row>
-    <row r="3" spans="1:25" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:24" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -845,62 +826,59 @@
       <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="D3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-    </row>
-    <row r="4" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:24" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -910,16 +888,16 @@
       <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="15" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="11" t="s">
@@ -946,7 +924,7 @@
       <c r="O4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="15" t="s">
         <v>5</v>
       </c>
       <c r="Q4" s="15" t="s">
@@ -955,261 +933,247 @@
       <c r="R4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="4">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4">
         <v>0</v>
       </c>
-      <c r="E5" s="4">
-        <v>50000</v>
-      </c>
-      <c r="F5" s="4">
-        <v>100000</v>
-      </c>
       <c r="G5" s="4">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>500000</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
       </c>
       <c r="L5" s="6">
-        <v>10</v>
-      </c>
-      <c r="M5" s="6">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
       </c>
       <c r="N5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P5" s="4">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="R5" s="4">
-        <v>2000</v>
-      </c>
-      <c r="S5" s="4">
-        <v>2000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="X5" s="4"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="4">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="4">
-        <v>80000</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
+        <v>50000</v>
+      </c>
+      <c r="H6" s="4">
         <v>200000</v>
       </c>
-      <c r="G6" s="4">
-        <v>40000</v>
-      </c>
-      <c r="H6" s="4">
-        <v>800000</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>46</v>
+      <c r="I6" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J6" s="4">
+        <v>100000</v>
+      </c>
+      <c r="K6" s="6">
+        <v>4</v>
       </c>
       <c r="L6" s="6">
-        <v>12</v>
-      </c>
-      <c r="M6" s="6">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="M6" s="4">
+        <v>2</v>
       </c>
       <c r="N6" s="4">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="O6" s="4">
-        <v>600</v>
+        <v>4800</v>
       </c>
       <c r="P6" s="4">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="Q6" s="4">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="R6" s="4">
-        <v>3000</v>
-      </c>
-      <c r="S6" s="4">
-        <v>3000</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="X6" s="4"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="4">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="4">
-        <v>120000</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H7" s="4">
         <v>400000</v>
       </c>
-      <c r="G7" s="4">
-        <v>60000</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>47</v>
+      <c r="I7" s="4">
+        <v>20000</v>
+      </c>
+      <c r="J7" s="4">
+        <v>200000</v>
+      </c>
+      <c r="K7" s="6">
+        <v>8</v>
       </c>
       <c r="L7" s="6">
-        <v>15</v>
-      </c>
-      <c r="M7" s="6">
         <v>6</v>
       </c>
+      <c r="M7" s="4">
+        <v>3</v>
+      </c>
       <c r="N7" s="4">
-        <v>3</v>
+        <v>400</v>
       </c>
       <c r="O7" s="4">
-        <v>800</v>
+        <v>9600</v>
       </c>
       <c r="P7" s="4">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="Q7" s="4">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="R7" s="4">
-        <v>4000</v>
-      </c>
-      <c r="S7" s="4">
-        <v>4000</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="X7" s="4"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="W7" s="4"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="4">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="4">
         <v>3</v>
       </c>
-      <c r="E8" s="4">
+      <c r="G8" s="4">
         <v>200000</v>
       </c>
-      <c r="F8" s="4">
-        <v>800000</v>
-      </c>
-      <c r="G8" s="4">
-        <v>100000</v>
-      </c>
       <c r="H8" s="4">
-        <v>2000000</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>39</v>
+        <v>500000</v>
+      </c>
+      <c r="I8" s="4">
+        <v>40000</v>
+      </c>
+      <c r="J8" s="4">
+        <v>400000</v>
+      </c>
+      <c r="K8" s="6">
+        <v>12</v>
       </c>
       <c r="L8" s="6">
-        <v>20</v>
-      </c>
-      <c r="M8" s="6">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="M8" s="4">
+        <v>5</v>
       </c>
       <c r="N8" s="4">
-        <v>4</v>
+        <v>800</v>
       </c>
       <c r="O8" s="4">
-        <v>1000</v>
+        <v>18200</v>
       </c>
       <c r="P8" s="4">
-        <v>50000</v>
+        <v>3000</v>
       </c>
       <c r="Q8" s="4">
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="R8" s="4">
-        <v>5000</v>
-      </c>
-      <c r="S8" s="4">
-        <v>5000</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="X8" s="4"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="W8" s="4"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -1218,19 +1182,19 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="X9" s="4"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1239,19 +1203,19 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="X10" s="4"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -1260,19 +1224,19 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="X11" s="4"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="W11" s="4"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -1281,19 +1245,19 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="X12" s="4"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="W12" s="4"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -1302,19 +1266,19 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="X13" s="4"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="W13" s="4"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -1323,16 +1287,16 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="X14" s="4"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="W14" s="4"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -1341,16 +1305,16 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="X15" s="4"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="W15" s="4"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+      <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -1359,16 +1323,16 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="X16" s="4"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="W16" s="4"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -1377,16 +1341,16 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="X17" s="4"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="W17" s="4"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -1395,16 +1359,16 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="X18" s="4"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="W18" s="4"/>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -1413,16 +1377,16 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="X19" s="4"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="W19" s="4"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
@@ -1431,16 +1395,16 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="X20" s="4"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="W20" s="4"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -1449,16 +1413,16 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="X21" s="4"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="W21" s="4"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
+      <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -1467,16 +1431,16 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="X22" s="4"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="W22" s="4"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
+      <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -1485,16 +1449,16 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="X23" s="4"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="W23" s="4"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="K24" s="6"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
+      <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -1503,16 +1467,16 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="X24" s="4"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="W24" s="4"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
@@ -1521,16 +1485,16 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="X25" s="4"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="W25" s="4"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+      <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -1539,16 +1503,16 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="X26" s="4"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="W26" s="4"/>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
+      <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
@@ -1557,16 +1521,16 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="X27" s="4"/>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="W27" s="4"/>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
+      <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -1575,16 +1539,16 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="X28" s="4"/>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="W28" s="4"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
+      <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -1593,16 +1557,16 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="X29" s="4"/>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="W29" s="4"/>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
+      <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -1611,16 +1575,16 @@
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="X30" s="4"/>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="W30" s="4"/>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
+      <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -1629,16 +1593,16 @@
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="X31" s="4"/>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="W31" s="4"/>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
+      <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -1647,16 +1611,16 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="X32" s="4"/>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="W32" s="4"/>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
+      <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
@@ -1665,16 +1629,16 @@
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="X33" s="4"/>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="W33" s="4"/>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="K34" s="6"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
+      <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
@@ -1683,16 +1647,16 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="X34" s="4"/>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="W34" s="4"/>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="K35" s="6"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
+      <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
@@ -1701,16 +1665,16 @@
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="X35" s="4"/>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="W35" s="4"/>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="K36" s="6"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
+      <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
@@ -1719,13 +1683,13 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="X36" s="4"/>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="W36" s="4"/>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
@@ -1734,14 +1698,14 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="X37" s="4"/>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="W37" s="4"/>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
+      <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
@@ -1750,14 +1714,14 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="X38" s="4"/>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="W38" s="4"/>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
+      <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
@@ -1766,14 +1730,14 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="X39" s="4"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="W39" s="4"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
+      <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
@@ -1782,14 +1746,14 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="X40" s="4"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="W40" s="4"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
+      <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
@@ -1798,14 +1762,14 @@
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="X41" s="4"/>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="W41" s="4"/>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="K42" s="6"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
+      <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
@@ -1814,14 +1778,14 @@
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="X42" s="4"/>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="W42" s="4"/>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
+      <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
@@ -1830,14 +1794,14 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="X43" s="4"/>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="W43" s="4"/>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="K44" s="6"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
+      <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
@@ -1846,14 +1810,14 @@
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="X44" s="4"/>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="W44" s="4"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="K45" s="6"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
+      <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
@@ -1862,246 +1826,245 @@
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="X45" s="4"/>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="W45" s="4"/>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="K46" s="6"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
+      <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="X46" s="4"/>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="W46" s="4"/>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-    </row>
-    <row r="49" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+    </row>
+    <row r="49" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-    </row>
-    <row r="50" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+    </row>
+    <row r="50" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-    </row>
-    <row r="51" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
+    </row>
+    <row r="51" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-    </row>
-    <row r="52" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+    </row>
+    <row r="52" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-    </row>
-    <row r="53" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+    </row>
+    <row r="53" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-    </row>
-    <row r="54" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+    </row>
+    <row r="54" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-    </row>
-    <row r="55" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
+    </row>
+    <row r="55" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-    </row>
-    <row r="56" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
+    </row>
+    <row r="56" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-    </row>
-    <row r="57" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
+    </row>
+    <row r="57" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-    </row>
-    <row r="58" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+    </row>
+    <row r="58" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-    </row>
-    <row r="59" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+    </row>
+    <row r="59" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-    </row>
-    <row r="60" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
+    </row>
+    <row r="60" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-    </row>
-    <row r="61" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
+    </row>
+    <row r="61" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-    </row>
-    <row r="62" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
+    </row>
+    <row r="62" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-    </row>
-    <row r="63" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+    </row>
+    <row r="63" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-    </row>
-    <row r="64" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+    </row>
+    <row r="64" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-    </row>
-    <row r="65" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
+    </row>
+    <row r="65" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-    </row>
-    <row r="66" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+    </row>
+    <row r="66" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-    </row>
-    <row r="67" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
+    </row>
+    <row r="67" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
-      <c r="S67" s="4"/>
-    </row>
-    <row r="68" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
+    </row>
+    <row r="68" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
-    </row>
-    <row r="69" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D69" s="4"/>
+    </row>
+    <row r="69" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F69" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/Export/Common/城市等级配置.xlsx
+++ b/Data/Export/Common/城市等级配置.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08661F59-ADDE-4442-8C64-136E38F8FFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678EC743-326B-4DCD-BFCA-32E1FD1FB95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29280" yWindow="2550" windowWidth="25380" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10065" yWindow="150" windowWidth="15540" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CityLevelTypes" sheetId="36" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
   <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1033,7 +1033,7 @@
         <v>200</v>
       </c>
       <c r="O6" s="4">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="P6" s="4">
         <v>1000</v>
@@ -1090,7 +1090,7 @@
         <v>400</v>
       </c>
       <c r="O7" s="4">
-        <v>9600</v>
+        <v>4000</v>
       </c>
       <c r="P7" s="4">
         <v>2000</v>
@@ -1147,7 +1147,7 @@
         <v>800</v>
       </c>
       <c r="O8" s="4">
-        <v>18200</v>
+        <v>8000</v>
       </c>
       <c r="P8" s="4">
         <v>3000</v>

--- a/Data/Export/Common/城市等级配置.xlsx
+++ b/Data/Export/Common/城市等级配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678EC743-326B-4DCD-BFCA-32E1FD1FB95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99D2705-AE87-47F2-B131-712037F6A157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10065" yWindow="150" windowWidth="15540" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CityLevelTypes" sheetId="36" r:id="rId1"/>
@@ -706,7 +706,7 @@
   <dimension ref="A1:X69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1033,7 +1033,7 @@
         <v>200</v>
       </c>
       <c r="O6" s="4">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="P6" s="4">
         <v>1000</v>
@@ -1090,7 +1090,7 @@
         <v>400</v>
       </c>
       <c r="O7" s="4">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P7" s="4">
         <v>2000</v>
@@ -1144,10 +1144,10 @@
         <v>5</v>
       </c>
       <c r="N8" s="4">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="O8" s="4">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P8" s="4">
         <v>3000</v>
